--- a/dossiers/Données finales/Info - Domaines.xlsx
+++ b/dossiers/Données finales/Info - Domaines.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20325"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie_000\Documents\GitHub\tal\dossiers\Données finales\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617EFB98-A71D-4B65-8515-E2E401EAD1FF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="27360" windowHeight="6720" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="27360" windowHeight="6720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Domaines" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="By7g_WIa" type="6" refreshedVersion="4" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="By7g_WIa" type="6" refreshedVersion="4" deleted="1" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="D:\Users\gouteud\Downloads\By7g_WIa.csv" decimal="," thousands=" " tab="0" comma="1" delimiter="=">
       <textFields count="3">
         <textField/>
@@ -2401,7 +2407,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2449,12 +2455,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="By7g_WIa" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="By7g_WIa" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2500,7 +2509,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2533,9 +2542,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2568,6 +2594,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2743,11 +2786,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C394"/>
   <sheetViews>
-    <sheetView topLeftCell="A364" workbookViewId="0">
-      <selection activeCell="B398" sqref="B398"/>
+    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
+      <selection activeCell="C315" sqref="C315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7094,10 +7137,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>

--- a/dossiers/Données finales/Info - Domaines.xlsx
+++ b/dossiers/Données finales/Info - Domaines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie_000\Documents\GitHub\tal\dossiers\Données finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{617EFB98-A71D-4B65-8515-E2E401EAD1FF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC927AC7-2481-4B7F-8509-421E3F1675A0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="27360" windowHeight="6720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="120" windowWidth="27360" windowHeight="6720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Domaines" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,14 @@
   <definedNames>
     <definedName name="By7g_WIa" localSheetId="0">Domaines!$A$1:$C$394</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2416,7 +2423,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2426,6 +2433,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2442,9 +2455,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2789,8 +2803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A311" workbookViewId="0">
-      <selection activeCell="C315" sqref="C315"/>
+    <sheetView topLeftCell="A335" workbookViewId="0">
+      <selection activeCell="B345" sqref="B345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6530,7 +6544,7 @@
       <c r="A340">
         <v>312</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="2" t="s">
         <v>630</v>
       </c>
       <c r="C340" t="s">
@@ -6552,7 +6566,7 @@
       <c r="A342">
         <v>314</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="2" t="s">
         <v>634</v>
       </c>
       <c r="C342" t="s">
@@ -6563,7 +6577,7 @@
       <c r="A343">
         <v>315</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="2" t="s">
         <v>636</v>
       </c>
       <c r="C343" t="s">
@@ -7140,8 +7154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/dossiers/Données finales/Info - Domaines.xlsx
+++ b/dossiers/Données finales/Info - Domaines.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damie_000\Documents\GitHub\tal\dossiers\Données finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC927AC7-2481-4B7F-8509-421E3F1675A0}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BF91C31-F7ED-4179-B49A-3B73AD2AC093}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="120" windowWidth="27360" windowHeight="6720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="600" yWindow="120" windowWidth="27360" windowHeight="6720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Domaines" sheetId="1" r:id="rId1"/>
@@ -2803,8 +2803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C394"/>
   <sheetViews>
-    <sheetView topLeftCell="A335" workbookViewId="0">
-      <selection activeCell="B345" sqref="B345"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="B350" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7154,8 +7154,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
